--- a/data/trans_dic/P23_1_R_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2688064000196304</v>
+        <v>0.2670997939725274</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1209529851726805</v>
+        <v>0.1164676309802327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1939681349407558</v>
+        <v>0.1968043192364527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1201796579354039</v>
+        <v>0.1192789386164024</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2443593484481783</v>
+        <v>0.2414965727801228</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1358685895090262</v>
+        <v>0.1319491839245083</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3584221335128063</v>
+        <v>0.3654676258851122</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2432560009828492</v>
+        <v>0.2455687468935115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2777137351066706</v>
+        <v>0.2761230126985298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2259049307676607</v>
+        <v>0.2317091959352992</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3069001402560311</v>
+        <v>0.3072765646611533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2154699733273085</v>
+        <v>0.2133709358080465</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.3351865570029621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2172420251719356</v>
+        <v>0.2172420251719357</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3687416557707919</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3627403520382247</v>
+        <v>0.3591175991930811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2414004525403904</v>
+        <v>0.2416664830320759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2965021737187268</v>
+        <v>0.2992931593783545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1799619238823788</v>
+        <v>0.1796623195637015</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3404572903671146</v>
+        <v>0.3393134597089499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2224159040951615</v>
+        <v>0.2201411428581367</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4472012246968449</v>
+        <v>0.4390624047097618</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3471326676646408</v>
+        <v>0.3468882030067116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.372960140829476</v>
+        <v>0.3751057505401878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.257133051254713</v>
+        <v>0.2600083780051161</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3993515268224282</v>
+        <v>0.3950613329825622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2873132088965228</v>
+        <v>0.289983577552693</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.3169950836582551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2169497005673205</v>
+        <v>0.2169497005673204</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3425293498730927</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3307886930583783</v>
+        <v>0.3286843324577972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2134180792562217</v>
+        <v>0.2157416131756328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2806544775916919</v>
+        <v>0.2860193776036448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1878804612638666</v>
+        <v>0.1897889285986301</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3158480773511175</v>
+        <v>0.3152959230204459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2139862898309071</v>
+        <v>0.2108427409098599</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4067108993698949</v>
+        <v>0.4061636003818945</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2883226264742732</v>
+        <v>0.2910144226027015</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3544892875422539</v>
+        <v>0.3550588932717799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2457261687356859</v>
+        <v>0.2470989850626665</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3694090359846781</v>
+        <v>0.3661582481593298</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2589237466395192</v>
+        <v>0.2559729154901876</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.416515517817187</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2651673989840649</v>
+        <v>0.2651673989840648</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3344808443974809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2077583091840111</v>
+        <v>0.2077583091840112</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3754692410004841</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3762295451309896</v>
+        <v>0.3762530236176652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2312105938863039</v>
+        <v>0.23059902862252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2984832622118792</v>
+        <v>0.2974511611029121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1868161728328566</v>
+        <v>0.1849784226118657</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3484719370617684</v>
+        <v>0.3470258521537082</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2137088519445145</v>
+        <v>0.2148903739533071</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4609534971610893</v>
+        <v>0.4581854228292328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2977013882504642</v>
+        <v>0.3015585456763234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3740986441132422</v>
+        <v>0.3733169862164412</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2336149664972653</v>
+        <v>0.2342367807127951</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4062622296027031</v>
+        <v>0.4029771461028677</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2554726793365912</v>
+        <v>0.2569599020396918</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.2876785241432268</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2929315482704108</v>
+        <v>0.2929315482704107</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.216663066057092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1983273250876242</v>
+        <v>0.1983273250876243</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2515208572635418</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.249174804292275</v>
+        <v>0.2444664625980504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2592586323233843</v>
+        <v>0.2579171254004124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1799421031899369</v>
+        <v>0.1796402638926685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1732967579598077</v>
+        <v>0.1735239221881117</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2232265461000185</v>
+        <v>0.2222973291333173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2210796265095548</v>
+        <v>0.2252097677172735</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3315670917303674</v>
+        <v>0.3351713335659697</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3321616275331828</v>
+        <v>0.3300479057528911</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2607248319608542</v>
+        <v>0.2614837771111235</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2252042395455624</v>
+        <v>0.2255403765591703</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2810744417425015</v>
+        <v>0.2824862197294259</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2666249273759715</v>
+        <v>0.2694331415143905</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1136067118518692</v>
+        <v>0.1138156639250679</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.148876372133807</v>
+        <v>0.1516617947207778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04659338992739523</v>
+        <v>0.04910802001445229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08630954782019147</v>
+        <v>0.08894139219216575</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08723031248366381</v>
+        <v>0.08806346600468369</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1230052071383196</v>
+        <v>0.1240593474041004</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1927136000488271</v>
+        <v>0.1938366395407523</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.212345837646138</v>
+        <v>0.2140710546172825</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.101678091718706</v>
+        <v>0.1019284190428604</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1302059314756362</v>
+        <v>0.1308396199557959</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1379122671843026</v>
+        <v>0.1385658736570177</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.162241915367216</v>
+        <v>0.1630220825558475</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0500676665412107</v>
+        <v>0.05046895650215089</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04421560037854648</v>
+        <v>0.04223119553856459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003417805033533955</v>
+        <v>0.003414055533272727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005222609580135101</v>
+        <v>0.005221710333949615</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02570168167803074</v>
+        <v>0.02448429538959037</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02227419633847699</v>
+        <v>0.02264125477899335</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.111535601215144</v>
+        <v>0.1093751694205584</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09078261084806832</v>
+        <v>0.08876664992433921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03278395737115235</v>
+        <v>0.03380248300396189</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02044784114857794</v>
+        <v>0.02053227723689901</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05259044042071446</v>
+        <v>0.05202267149395012</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04350018880459378</v>
+        <v>0.04355115894400235</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.3214207709242772</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2394886124978119</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112754</v>
+        <v>112038</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>49324</v>
+        <v>47495</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>76764</v>
+        <v>77886</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43270</v>
+        <v>42946</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>199206</v>
+        <v>196872</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>104326</v>
+        <v>101316</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>150345</v>
+        <v>153300</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>99198</v>
+        <v>100141</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109907</v>
+        <v>109277</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81337</v>
+        <v>83426</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>250191</v>
+        <v>250497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>165447</v>
+        <v>163835</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>214197</v>
+        <v>212058</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>115121</v>
+        <v>115248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>167092</v>
+        <v>168665</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>90176</v>
+        <v>90026</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>392901</v>
+        <v>391581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>217517</v>
+        <v>215292</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>264071</v>
+        <v>259265</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>165544</v>
+        <v>165428</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>210179</v>
+        <v>211389</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>128845</v>
+        <v>130286</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>460868</v>
+        <v>455917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>280985</v>
+        <v>283596</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>220975</v>
+        <v>219569</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>132246</v>
+        <v>133686</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>185361</v>
+        <v>188904</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>116888</v>
+        <v>118075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>419599</v>
+        <v>418865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>265728</v>
+        <v>261824</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>271693</v>
+        <v>271327</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178662</v>
+        <v>180330</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>234126</v>
+        <v>234502</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>152876</v>
+        <v>153730</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>490754</v>
+        <v>486435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>321531</v>
+        <v>317867</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>243062</v>
+        <v>243078</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161726</v>
+        <v>161298</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>193107</v>
+        <v>192439</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>137399</v>
+        <v>136048</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>450577</v>
+        <v>448708</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>306662</v>
+        <v>308358</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>297798</v>
+        <v>296010</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>208235</v>
+        <v>210933</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>242027</v>
+        <v>241522</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>171819</v>
+        <v>172276</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>525301</v>
+        <v>521053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>366592</v>
+        <v>368726</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>119085</v>
+        <v>116835</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>157698</v>
+        <v>156882</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>89204</v>
+        <v>89055</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>105513</v>
+        <v>105651</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>217346</v>
+        <v>216442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>269080</v>
+        <v>274107</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>158462</v>
+        <v>160184</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>202042</v>
+        <v>200757</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>129252</v>
+        <v>129628</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>137117</v>
+        <v>137321</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>273670</v>
+        <v>275045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>324515</v>
+        <v>327932</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37982</v>
+        <v>38052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>60605</v>
+        <v>61738</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17601</v>
+        <v>18551</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>37904</v>
+        <v>39060</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>62116</v>
+        <v>62709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>104093</v>
+        <v>104985</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>64430</v>
+        <v>64805</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>86442</v>
+        <v>87144</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>38410</v>
+        <v>38505</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>57182</v>
+        <v>57460</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>98206</v>
+        <v>98672</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>137297</v>
+        <v>137957</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12824</v>
+        <v>12927</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13716</v>
+        <v>13100</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>2426</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>16835</v>
+        <v>16038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17258</v>
+        <v>17543</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28568</v>
+        <v>28015</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28161</v>
+        <v>27535</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13077</v>
+        <v>13483</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9500</v>
+        <v>9539</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34448</v>
+        <v>34076</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>33704</v>
+        <v>33744</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
     </row>
     <row r="36">
